--- a/src/main/webapp/WEB-INF/jxls/ideaUsList.xlsx
+++ b/src/main/webapp/WEB-INF/jxls/ideaUsList.xlsx
@@ -1,87 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35885F7E-1586-4894-A27F-9AF7BE7F6008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5376" yWindow="1188" windowWidth="15828" windowHeight="6756"/>
+    <workbookView xWindow="29220" yWindow="840" windowWidth="24810" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="조직" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>${title}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${jobgrade}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${circle}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${mileage}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${createDt}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${dataList.userId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dataList.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dataList.department}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dataList.mileage}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${dataList.createDt}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${dataList.jobGrade}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dataList.circle_nm}</t>
+    <t>${ideaUsManage}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▣${year} : ${findYear}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${category}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${content}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${userNm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${deptNm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${state}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dataList.category}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dataList.title}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dataList.content}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dataList.userNm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dataList.deptNm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dataList.state}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dataList.atchFileId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${atchFile}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +139,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -171,7 +191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +212,18 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -207,6 +239,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -255,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,9 +323,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,6 +375,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,86 +567,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.19921875" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="3" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.296875" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="66.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.296875" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
